--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>PROYECTO ANTERIOR</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE NEGOCIOS</t>
+  </si>
+  <si>
+    <t>Total Macroprocesos</t>
   </si>
 </sst>
 </file>
@@ -817,7 +823,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1021,9 +1027,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,6 +1079,14 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1379,11 +1390,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C18"/>
+  <dimension ref="B3:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1392,140 +1401,176 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="128">
         <f>Procesos!M48+6</f>
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="129">
         <f>Procesos!M48</f>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="129">
         <f>COUNTIF(Procesos!H4:H46,"100%")</f>
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="129">
         <f>COUNTIF(Procesos!H4:H46,"75%")</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="129">
         <f>COUNTIF(Procesos!H4:H46,"50%")</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="129">
         <f>COUNTIF(Procesos!H4:H46,"250%")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="129">
         <f>COUNTIF(Procesos!H4:H46,"0%")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="127" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="129">
         <f>'Procesos - Proyecto Anterior'!F43+7</f>
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="129">
         <f>'Procesos - Proyecto Anterior'!F43</f>
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="130">
+      <c r="C15" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"X")</f>
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"")-6</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="130">
+      <c r="C17" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"Si")</f>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="130">
+      <c r="C18" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"No")</f>
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="129">
+        <f>C13+C4-2</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="129">
+        <f>C5+C14</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="129">
+        <f>C22-C23</f>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2394,14 +2439,14 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
       <c r="H48" s="3">
         <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
         <v>0.83552631578947367</v>
@@ -2837,7 +2882,7 @@
       <c r="H2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="I2" s="121" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2850,10 +2895,10 @@
       </c>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2866,10 +2911,10 @@
         <v>99</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2882,10 +2927,10 @@
         <v>98</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2898,10 +2943,10 @@
         <v>97</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2914,10 +2959,10 @@
         <v>96</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2930,10 +2975,10 @@
         <v>95</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="H8" s="118" t="s">
+      <c r="H8" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="121" t="s">
+      <c r="I8" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2946,19 +2991,19 @@
         <v>94</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="112">
+      <c r="F9" s="111">
         <v>6</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="120" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -2969,10 +3014,10 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2985,10 +3030,10 @@
         <v>92</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="121" t="s">
+      <c r="I12" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3001,10 +3046,10 @@
         <v>91</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="121" t="s">
+      <c r="I13" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3017,10 +3062,10 @@
       <c r="E14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="118" t="s">
+      <c r="H14" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3033,10 +3078,10 @@
         <v>88</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="H15" s="118" t="s">
+      <c r="H15" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3049,19 +3094,19 @@
         <v>87</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="113">
+      <c r="F16" s="112">
         <v>5</v>
       </c>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="121" t="s">
+      <c r="I16" s="120" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="105">
@@ -3072,10 +3117,10 @@
       </c>
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="121" t="s">
+      <c r="I18" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3088,10 +3133,10 @@
         <v>85</v>
       </c>
       <c r="E19" s="106"/>
-      <c r="H19" s="118" t="s">
+      <c r="H19" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="121" t="s">
+      <c r="I19" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3104,10 +3149,10 @@
         <v>84</v>
       </c>
       <c r="E20" s="106"/>
-      <c r="H20" s="118" t="s">
+      <c r="H20" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="121" t="s">
+      <c r="I20" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3120,10 +3165,10 @@
       <c r="E21" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="118" t="s">
+      <c r="H21" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="121" t="s">
+      <c r="I21" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3136,19 +3181,19 @@
         <v>81</v>
       </c>
       <c r="E22" s="106"/>
-      <c r="F22" s="114">
+      <c r="F22" s="113">
         <v>4</v>
       </c>
-      <c r="H22" s="118" t="s">
+      <c r="H22" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="121" t="s">
+      <c r="I22" s="120" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
@@ -3159,10 +3204,10 @@
       </c>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="121" t="s">
+      <c r="I24" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3175,8 +3220,8 @@
         <v>79</v>
       </c>
       <c r="E25" s="103"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="121" t="s">
+      <c r="H25" s="117"/>
+      <c r="I25" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3189,10 +3234,10 @@
         <v>78</v>
       </c>
       <c r="E26" s="103"/>
-      <c r="H26" s="118" t="s">
+      <c r="H26" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="121" t="s">
+      <c r="I26" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3205,10 +3250,10 @@
         <v>77</v>
       </c>
       <c r="E27" s="103"/>
-      <c r="H27" s="118" t="s">
+      <c r="H27" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="121" t="s">
+      <c r="I27" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3221,10 +3266,10 @@
         <v>76</v>
       </c>
       <c r="E28" s="103"/>
-      <c r="H28" s="118" t="s">
+      <c r="H28" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="121" t="s">
+      <c r="I28" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3237,19 +3282,19 @@
         <v>75</v>
       </c>
       <c r="E29" s="103"/>
-      <c r="F29" s="115">
+      <c r="F29" s="114">
         <v>5</v>
       </c>
-      <c r="H29" s="118" t="s">
+      <c r="H29" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="121" t="s">
+      <c r="I29" s="120" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="96">
@@ -3260,10 +3305,10 @@
       </c>
       <c r="D31" s="102"/>
       <c r="E31" s="102"/>
-      <c r="H31" s="118" t="s">
+      <c r="H31" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="121" t="s">
+      <c r="I31" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3276,10 +3321,10 @@
         <v>73</v>
       </c>
       <c r="E32" s="101"/>
-      <c r="H32" s="118" t="s">
+      <c r="H32" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="121" t="s">
+      <c r="I32" s="120" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3292,10 +3337,10 @@
         <v>72</v>
       </c>
       <c r="E33" s="101"/>
-      <c r="H33" s="118" t="s">
+      <c r="H33" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="121" t="s">
+      <c r="I33" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3311,16 +3356,16 @@
       <c r="F34" s="30">
         <v>3</v>
       </c>
-      <c r="H34" s="118" t="s">
+      <c r="H34" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="121" t="s">
+      <c r="I34" s="120" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
@@ -3331,10 +3376,10 @@
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="H36" s="118" t="s">
+      <c r="H36" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="121" t="s">
+      <c r="I36" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3347,10 +3392,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="100"/>
-      <c r="H37" s="118" t="s">
+      <c r="H37" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="121" t="s">
+      <c r="I37" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3363,19 +3408,19 @@
         <v>68</v>
       </c>
       <c r="E38" s="100"/>
-      <c r="F38" s="116">
+      <c r="F38" s="115">
         <v>2</v>
       </c>
-      <c r="H38" s="118" t="s">
+      <c r="H38" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="121" t="s">
+      <c r="I38" s="120" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="98">
@@ -3386,10 +3431,10 @@
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
-      <c r="H40" s="118" t="s">
+      <c r="H40" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="121" t="s">
+      <c r="I40" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3402,19 +3447,19 @@
         <v>66</v>
       </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="117">
-        <v>1</v>
-      </c>
-      <c r="H41" s="118" t="s">
+      <c r="F41" s="116">
+        <v>1</v>
+      </c>
+      <c r="H41" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="121" t="s">
+      <c r="I41" s="120" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F43" s="110">
@@ -3425,7 +3470,7 @@
         <f>COUNTIF(H3:H41,"X")</f>
         <v>32</v>
       </c>
-      <c r="I43" s="120">
+      <c r="I43" s="119">
         <f>COUNTIF(I3:I41,"Si")</f>
         <v>16</v>
       </c>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -617,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -803,10 +803,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -823,7 +838,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1060,33 +1075,38 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1390,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C24"/>
+  <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1400,171 +1420,174 @@
     <col min="3" max="3" width="13.7109375" style="84" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="124" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="126">
         <f>Procesos!M48+6</f>
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="127">
         <f>Procesos!M48</f>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="129">
+      <c r="C6" s="127">
         <f>COUNTIF(Procesos!H4:H46,"100%")</f>
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="127">
         <f>COUNTIF(Procesos!H4:H46,"75%")</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="129">
+      <c r="C8" s="127">
         <f>COUNTIF(Procesos!H4:H46,"50%")</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="129">
+      <c r="C9" s="127">
         <f>COUNTIF(Procesos!H4:H46,"250%")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="123" t="s">
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="130">
         <f>COUNTIF(Procesos!H4:H46,"0%")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="130" t="s">
+    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C13" s="124" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C14" s="127">
         <f>'Procesos - Proyecto Anterior'!F43+7</f>
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="124" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="129">
+      <c r="C15" s="127">
         <f>'Procesos - Proyecto Anterior'!F43</f>
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="125" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="129">
+      <c r="C16" s="127">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"X")</f>
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="129">
+      <c r="C17" s="127">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"")-6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="125" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C18" s="127">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"Si")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="125" t="s">
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="129">
+      <c r="C19" s="130">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"No")</f>
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="132" t="s">
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C22" s="124" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="133" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="129">
-        <f>C13+C4-2</f>
+      <c r="C23" s="127">
+        <f>C14+C4-2</f>
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="133" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="129">
-        <f>C5+C14</f>
+      <c r="C24" s="127">
+        <f>C5+C15</f>
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="134" t="s">
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="129">
-        <f>C22-C23</f>
+      <c r="C25" s="130">
+        <f>C23-C24</f>
         <v>11</v>
       </c>
     </row>
@@ -2439,14 +2462,14 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="131" t="s">
+      <c r="B48" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
       <c r="H48" s="3">
         <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
         <v>0.83552631578947367</v>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen de Procesos" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="Proyecto" sheetId="2" r:id="rId3"/>
     <sheet name="Procesos - Proyecto Anterior" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Procesos - Proyecto Anterior'!$B$2:$I$41</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="123">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -383,6 +386,9 @@
   </si>
   <si>
     <t>Total Macroprocesos</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -1075,9 +1081,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,6 +1110,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1412,7 +1418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1422,171 +1430,171 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="123" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="125">
         <f>Procesos!M48+6</f>
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="127">
+      <c r="C5" s="126">
         <f>Procesos!M48</f>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="126">
         <f>COUNTIF(Procesos!H4:H46,"100%")</f>
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="126">
         <f>COUNTIF(Procesos!H4:H46,"75%")</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="126">
         <f>COUNTIF(Procesos!H4:H46,"50%")</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="126">
         <f>COUNTIF(Procesos!H4:H46,"250%")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="129">
         <f>COUNTIF(Procesos!H4:H46,"0%")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="123" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="126">
         <f>'Procesos - Proyecto Anterior'!F43+7</f>
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="126">
         <f>'Procesos - Proyecto Anterior'!F43</f>
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="127">
+      <c r="C16" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"X")</f>
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"")-6</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"Si")</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="130">
+      <c r="C19" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"No")</f>
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="123" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="127">
+      <c r="C23" s="126">
         <f>C14+C4-2</f>
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="127">
+      <c r="C24" s="126">
         <f>C5+C15</f>
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="130">
+      <c r="C25" s="129">
         <f>C23-C24</f>
         <v>11</v>
       </c>
@@ -1601,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
@@ -2462,14 +2470,14 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
       <c r="H48" s="3">
         <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
         <v>0.83552631578947367</v>
@@ -2882,10 +2890,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,7 +2934,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
@@ -2941,7 +2950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>1.2</v>
@@ -2957,7 +2966,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1.3</v>
@@ -2981,7 +2990,9 @@
       <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H7" s="117" t="s">
         <v>101</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>1.5</v>
@@ -3005,7 +3016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1.6</v>
@@ -3024,7 +3035,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
     </row>
@@ -3060,7 +3071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9">
         <v>2.2000000000000002</v>
@@ -3076,7 +3087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -3092,7 +3103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9">
         <v>2.2999999999999998</v>
@@ -3108,7 +3119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <v>2.4</v>
@@ -3127,7 +3138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H17" s="118"/>
       <c r="I17" s="118"/>
     </row>
@@ -3147,7 +3158,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="106">
         <v>3.1</v>
@@ -3179,7 +3190,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
@@ -3195,7 +3206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="106">
         <v>3.3</v>
@@ -3214,7 +3225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H23" s="118"/>
       <c r="I23" s="118"/>
     </row>
@@ -3234,7 +3245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="103">
         <v>4.0999999999999996</v>
@@ -3264,7 +3275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="103">
         <v>4.3</v>
@@ -3296,7 +3307,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
       <c r="C29" s="103">
         <v>4.5</v>
@@ -3315,7 +3326,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H30" s="118"/>
       <c r="I30" s="118"/>
     </row>
@@ -3335,7 +3346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
       <c r="C32" s="101">
         <v>5.0999999999999996</v>
@@ -3367,7 +3378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="101">
         <v>5.3</v>
@@ -3386,7 +3397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H35" s="118"/>
       <c r="I35" s="118"/>
     </row>
@@ -3441,7 +3452,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H39" s="118"/>
       <c r="I39" s="118"/>
     </row>
@@ -3499,6 +3510,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I41">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Si"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>Total Macroprocesos</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
 </sst>
 </file>
@@ -2890,11 +2887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2898,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="110" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="110" customWidth="1"/>
@@ -2934,7 +2930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
@@ -2950,7 +2946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>1.2</v>
@@ -2966,7 +2962,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1.3</v>
@@ -2990,9 +2986,7 @@
       <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="H7" s="117" t="s">
         <v>101</v>
       </c>
@@ -3000,7 +2994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>1.5</v>
@@ -3016,7 +3010,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1.6</v>
@@ -3035,7 +3029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
     </row>
@@ -3071,7 +3065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9">
         <v>2.2000000000000002</v>
@@ -3087,7 +3081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -3103,7 +3097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9">
         <v>2.2999999999999998</v>
@@ -3119,7 +3113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <v>2.4</v>
@@ -3138,7 +3132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H17" s="118"/>
       <c r="I17" s="118"/>
     </row>
@@ -3158,7 +3152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="106">
         <v>3.1</v>
@@ -3190,7 +3184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
@@ -3206,7 +3200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="106">
         <v>3.3</v>
@@ -3225,7 +3219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H23" s="118"/>
       <c r="I23" s="118"/>
     </row>
@@ -3245,7 +3239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="103">
         <v>4.0999999999999996</v>
@@ -3275,7 +3269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="103">
         <v>4.3</v>
@@ -3307,7 +3301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
       <c r="C29" s="103">
         <v>4.5</v>
@@ -3326,7 +3320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H30" s="118"/>
       <c r="I30" s="118"/>
     </row>
@@ -3346,7 +3340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
       <c r="C32" s="101">
         <v>5.0999999999999996</v>
@@ -3378,7 +3372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="101">
         <v>5.3</v>
@@ -3397,7 +3391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H35" s="118"/>
       <c r="I35" s="118"/>
     </row>
@@ -3452,7 +3446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H39" s="118"/>
       <c r="I39" s="118"/>
     </row>
@@ -3510,13 +3504,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I41">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Si"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:I41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen de Procesos" sheetId="5" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen de Procesos" sheetId="5" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Procesos - Proyecto Anterior" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Procesos - Proyecto Anterior'!$B$2:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Procesos - Proyecto Anterior'!$B$2:$J$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -386,6 +386,27 @@
   </si>
   <si>
     <t>Total Macroprocesos</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Formación</t>
+  </si>
+  <si>
+    <t>Educación Técnica</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Donaciones e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Pastoral</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +482,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -841,7 +885,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1109,6 +1153,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1415,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2887,15 +2937,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -2903,9 +2953,10 @@
     <col min="6" max="6" width="5.85546875" style="110" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="110" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="110" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="110"/>
       <c r="H2" s="30" t="s">
         <v>102</v>
@@ -2913,8 +2964,11 @@
       <c r="I2" s="121" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="139" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="108">
         <v>1</v>
       </c>
@@ -2930,7 +2984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
@@ -2945,8 +2999,11 @@
       <c r="I4" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>1.2</v>
@@ -2961,8 +3018,11 @@
       <c r="I5" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1.3</v>
@@ -2977,8 +3037,11 @@
       <c r="I6" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>1.4</v>
@@ -2993,8 +3056,11 @@
       <c r="I7" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>1.5</v>
@@ -3009,8 +3075,11 @@
       <c r="I8" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1.6</v>
@@ -3028,12 +3097,15 @@
       <c r="I9" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -3049,7 +3121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9">
         <v>2.1</v>
@@ -3064,8 +3136,11 @@
       <c r="I12" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9">
         <v>2.2000000000000002</v>
@@ -3080,8 +3155,11 @@
       <c r="I13" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -3096,8 +3174,11 @@
       <c r="I14" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9">
         <v>2.2999999999999998</v>
@@ -3112,8 +3193,11 @@
       <c r="I15" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <v>2.4</v>
@@ -3131,12 +3215,15 @@
       <c r="I16" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H17" s="118"/>
       <c r="I17" s="118"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="105">
         <v>3</v>
       </c>
@@ -3152,7 +3239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="106">
         <v>3.1</v>
@@ -3167,8 +3254,11 @@
       <c r="I19" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="106">
         <v>3.2</v>
@@ -3183,8 +3273,11 @@
       <c r="I20" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
@@ -3199,8 +3292,11 @@
       <c r="I21" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="106">
         <v>3.3</v>
@@ -3218,12 +3314,15 @@
       <c r="I22" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H23" s="118"/>
       <c r="I23" s="118"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>4</v>
       </c>
@@ -3239,7 +3338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="103">
         <v>4.0999999999999996</v>
@@ -3252,8 +3351,11 @@
       <c r="I25" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="103">
         <v>4.2</v>
@@ -3268,8 +3370,11 @@
       <c r="I26" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="103">
         <v>4.3</v>
@@ -3284,8 +3389,11 @@
       <c r="I27" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="103"/>
       <c r="C28" s="103">
         <v>4.4000000000000004</v>
@@ -3300,8 +3408,11 @@
       <c r="I28" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
       <c r="C29" s="103">
         <v>4.5</v>
@@ -3319,12 +3430,15 @@
       <c r="I29" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H30" s="118"/>
       <c r="I30" s="118"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="96">
         <v>5</v>
       </c>
@@ -3340,7 +3454,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
       <c r="C32" s="101">
         <v>5.0999999999999996</v>
@@ -3355,8 +3469,11 @@
       <c r="I32" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="101"/>
       <c r="C33" s="101">
         <v>5.2</v>
@@ -3371,8 +3488,11 @@
       <c r="I33" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="101">
         <v>5.3</v>
@@ -3390,12 +3510,15 @@
       <c r="I34" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H35" s="118"/>
       <c r="I35" s="118"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>6</v>
       </c>
@@ -3411,7 +3534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="100"/>
       <c r="C37" s="100">
         <v>6.1</v>
@@ -3426,8 +3549,11 @@
       <c r="I37" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="100"/>
       <c r="C38" s="100">
         <v>6.2</v>
@@ -3445,12 +3571,15 @@
       <c r="I38" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H39" s="118"/>
       <c r="I39" s="118"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="98">
         <v>7</v>
       </c>
@@ -3466,7 +3595,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="28">
         <v>7.1</v>
@@ -3484,12 +3613,15 @@
       <c r="I41" s="120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H42" s="118"/>
       <c r="I42" s="118"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F43" s="110">
         <f xml:space="preserve"> SUM(F9:F42)</f>
         <v>26</v>
@@ -3504,7 +3636,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I41"/>
+  <autoFilter ref="B2:J43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -1151,14 +1151,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C18" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"Si")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="C19" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"No")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2517,14 +2517,14 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
       <c r="H48" s="3">
         <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
         <v>0.83552631578947367</v>
@@ -2940,7 +2940,7 @@
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,7 +2953,7 @@
     <col min="6" max="6" width="5.85546875" style="110" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="110" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="110" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="138" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="137" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
       <c r="I2" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="139" t="s">
+      <c r="J2" s="138" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2997,9 +2997,9 @@
         <v>101</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="137" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       <c r="I5" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="138" t="s">
+      <c r="J5" s="137" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       <c r="I6" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="137" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       <c r="I7" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="J7" s="137" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       <c r="I8" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="137" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       <c r="I9" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="138" t="s">
+      <c r="J9" s="137" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       <c r="I12" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="137" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       <c r="I13" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="138" t="s">
+      <c r="J13" s="137" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       <c r="I14" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="J14" s="137" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       <c r="I15" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="138" t="s">
+      <c r="J15" s="137" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       <c r="I16" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="138" t="s">
+      <c r="J16" s="137" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       <c r="I19" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="137" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="I20" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="138" t="s">
+      <c r="J20" s="137" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       <c r="I21" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="138" t="s">
+      <c r="J21" s="137" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       <c r="I22" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J22" s="138" t="s">
+      <c r="J22" s="137" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       <c r="I25" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="138" t="s">
+      <c r="J25" s="137" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       <c r="I26" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="138" t="s">
+      <c r="J26" s="137" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="I27" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="138" t="s">
+      <c r="J27" s="137" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       <c r="I28" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="138" t="s">
+      <c r="J28" s="137" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       <c r="I29" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J29" s="138" t="s">
+      <c r="J29" s="137" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="I32" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="138" t="s">
+      <c r="J32" s="137" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="I33" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J33" s="138" t="s">
+      <c r="J33" s="137" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       <c r="I34" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="138" t="s">
+      <c r="J34" s="137" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       <c r="I37" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J37" s="138" t="s">
+      <c r="J37" s="137" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       <c r="I38" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J38" s="138" t="s">
+      <c r="J38" s="137" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       <c r="I41" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J41" s="138" t="s">
+      <c r="J41" s="137" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="I43" s="119">
         <f>COUNTIF(I3:I41,"Si")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Avance - Porcentajes.xlsx
+++ b/Avance - Porcentajes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="-180" yWindow="3240" windowWidth="18780" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen de Procesos" sheetId="5" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Procesos - Proyecto Anterior'!$B$2:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>Gestión de Obras Civiles</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Contratación e Inducción</t>
   </si>
   <si>
-    <t>Despido de Personal</t>
-  </si>
-  <si>
     <t>Capacitación de Personal</t>
   </si>
   <si>
@@ -407,6 +404,21 @@
   </si>
   <si>
     <t>Pastoral</t>
+  </si>
+  <si>
+    <t>Despido o Retiro de Personal</t>
+  </si>
+  <si>
+    <t>Gestión de Imagen Institucional y Donaciones</t>
+  </si>
+  <si>
+    <t>Emisión de Cartas</t>
+  </si>
+  <si>
+    <t>Recepción de Donaciones</t>
+  </si>
+  <si>
+    <t>Emisión y Declaración de Certificados de Donación</t>
   </si>
 </sst>
 </file>
@@ -500,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +675,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -885,7 +909,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1160,6 +1184,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="29" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="28" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1466,7 +1495,7 @@
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,60 +1507,60 @@
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="123" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="123" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="125">
-        <f>Procesos!M48+6</f>
-        <v>38</v>
+        <f>Procesos!M53+6</f>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="126">
-        <f>Procesos!M48</f>
-        <v>32</v>
+        <f>Procesos!M53</f>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="126">
         <f>COUNTIF(Procesos!H4:H46,"100%")</f>
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="126">
         <f>COUNTIF(Procesos!H4:H46,"75%")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="126">
         <f>COUNTIF(Procesos!H4:H46,"50%")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="126">
         <f>COUNTIF(Procesos!H4:H46,"250%")</f>
@@ -1540,7 +1569,7 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="129">
         <f>COUNTIF(Procesos!H4:H46,"0%")</f>
@@ -1550,15 +1579,15 @@
     <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="126">
         <f>'Procesos - Proyecto Anterior'!F43+7</f>
@@ -1567,7 +1596,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="126">
         <f>'Procesos - Proyecto Anterior'!F43</f>
@@ -1576,7 +1605,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"X")</f>
@@ -1585,7 +1614,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!H3:H41,"")-6</f>
@@ -1594,7 +1623,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="126">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"Si")</f>
@@ -1603,7 +1632,7 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="129">
         <f>COUNTIF('Procesos - Proyecto Anterior'!I3:I41,"No")</f>
@@ -1613,33 +1642,33 @@
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="126">
         <f>C14+C4-2</f>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="126">
         <f>C5+C15</f>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="129">
         <f>C23-C24</f>
@@ -1654,11 +1683,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M48"/>
+  <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1933,8 +1960,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
-        <f>AVERAGE(H18:H26)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="82" t="s">
         <v>24</v>
@@ -1956,7 +1982,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="83" t="s">
         <v>24</v>
@@ -1977,7 +2003,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="83" t="s">
         <v>24</v>
@@ -1998,7 +2024,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="83" t="s">
         <v>24</v>
@@ -2019,7 +2045,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="83" t="s">
         <v>24</v>
@@ -2040,7 +2066,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="83" t="s">
         <v>24</v>
@@ -2061,7 +2087,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="83" t="s">
         <v>24</v>
@@ -2082,7 +2108,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="83"/>
       <c r="J24" s="2"/>
@@ -2092,14 +2118,14 @@
         <v>3.8</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="83"/>
       <c r="J25" s="2"/>
@@ -2109,14 +2135,14 @@
         <v>3.9</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="83" t="s">
         <v>24</v>
@@ -2422,8 +2448,7 @@
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="35">
-        <f>AVERAGE(H43:H46)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I42" s="82" t="s">
         <v>24</v>
@@ -2445,7 +2470,7 @@
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I43" s="83" t="s">
         <v>24</v>
@@ -2466,7 +2491,7 @@
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I44" s="83" t="s">
         <v>24</v>
@@ -2487,7 +2512,7 @@
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I45" s="83"/>
       <c r="J45" s="2"/>
@@ -2504,7 +2529,7 @@
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I46" s="83" t="s">
         <v>24</v>
@@ -2516,27 +2541,114 @@
         <v>4</v>
       </c>
     </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="140"/>
+    </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="139" t="s">
+      <c r="B48" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="144">
+        <f>AVERAGE(H49:H51)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I48" s="83"/>
+      <c r="J48" s="2"/>
+      <c r="M48" s="140"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="141">
+        <v>7.1</v>
+      </c>
+      <c r="C49" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="142">
+        <v>0.75</v>
+      </c>
+      <c r="I49" s="83"/>
+      <c r="J49" s="2"/>
+      <c r="M49" s="140"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="141">
+        <v>7.2</v>
+      </c>
+      <c r="C50" s="141" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="142">
+        <v>0.75</v>
+      </c>
+      <c r="I50" s="83"/>
+      <c r="J50" s="2"/>
+      <c r="M50" s="140"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="141">
+        <v>7.3</v>
+      </c>
+      <c r="C51" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="142">
+        <v>0.75</v>
+      </c>
+      <c r="I51" s="83"/>
+      <c r="J51" s="2"/>
+      <c r="M51" s="143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="3">
-        <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7)</f>
-        <v>0.83552631578947367</v>
-      </c>
-      <c r="M48" s="96">
-        <f>SUM(M4:M47)</f>
-        <v>32</v>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="3">
+        <f>AVERAGE(H42:H46,H37:H40,H28:H35,H17:H26,H9:H15,H4:H7,H48:H51)</f>
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="M53" s="96">
+        <f>SUM(M4:M52)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B53:G53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2939,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,13 +3071,13 @@
     <row r="2" spans="2:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="110"/>
       <c r="H2" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="121" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -2973,15 +3085,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
       <c r="H3" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -2990,17 +3102,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4"/>
       <c r="H4" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J4" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -3009,17 +3121,17 @@
         <v>1.2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4"/>
       <c r="H5" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -3028,17 +3140,17 @@
         <v>1.3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4"/>
       <c r="H6" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -3047,17 +3159,17 @@
         <v>1.4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="4"/>
       <c r="H7" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -3066,17 +3178,17 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="4"/>
       <c r="H8" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -3085,20 +3197,20 @@
         <v>1.6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="111">
         <v>6</v>
       </c>
       <c r="H9" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -3110,15 +3222,15 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="H11" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -3127,17 +3239,17 @@
         <v>2.1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="9"/>
       <c r="H12" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -3146,36 +3258,36 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9"/>
       <c r="H13" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -3184,17 +3296,17 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="9"/>
       <c r="H15" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -3203,20 +3315,20 @@
         <v>2.4</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="112">
         <v>5</v>
       </c>
       <c r="H16" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I16" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3228,15 +3340,15 @@
         <v>3</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
       <c r="H18" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I18" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3245,17 +3357,17 @@
         <v>3.1</v>
       </c>
       <c r="D19" s="106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="106"/>
       <c r="H19" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J19" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3264,36 +3376,36 @@
         <v>3.2</v>
       </c>
       <c r="D20" s="106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="106"/>
       <c r="H20" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J20" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I21" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3302,20 +3414,20 @@
         <v>3.3</v>
       </c>
       <c r="D22" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="106"/>
       <c r="F22" s="113">
         <v>4</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I22" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3327,15 +3439,15 @@
         <v>4</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
       <c r="H24" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I24" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -3344,15 +3456,15 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D25" s="103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="103"/>
       <c r="H25" s="117"/>
       <c r="I25" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J25" s="137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -3361,17 +3473,17 @@
         <v>4.2</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="103"/>
       <c r="H26" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J26" s="137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -3380,17 +3492,17 @@
         <v>4.3</v>
       </c>
       <c r="D27" s="103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="103"/>
       <c r="H27" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J27" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -3399,17 +3511,17 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D28" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="103"/>
       <c r="H28" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I28" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -3418,20 +3530,20 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="103"/>
       <c r="F29" s="114">
         <v>5</v>
       </c>
       <c r="H29" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J29" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -3443,15 +3555,15 @@
         <v>5</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="102"/>
       <c r="E31" s="102"/>
       <c r="H31" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -3460,17 +3572,17 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="101"/>
       <c r="H32" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J32" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -3479,17 +3591,17 @@
         <v>5.2</v>
       </c>
       <c r="D33" s="101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="101"/>
       <c r="H33" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J33" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -3498,20 +3610,20 @@
         <v>5.3</v>
       </c>
       <c r="D34" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="101"/>
       <c r="F34" s="30">
         <v>3</v>
       </c>
       <c r="H34" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J34" s="137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -3523,15 +3635,15 @@
         <v>6</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="H36" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I36" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -3540,17 +3652,17 @@
         <v>6.1</v>
       </c>
       <c r="D37" s="100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="100"/>
       <c r="H37" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I37" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J37" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -3559,20 +3671,20 @@
         <v>6.2</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="100"/>
       <c r="F38" s="115">
         <v>2</v>
       </c>
       <c r="H38" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I38" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J38" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -3584,15 +3696,15 @@
         <v>7</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="99"/>
       <c r="H40" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I40" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -3601,20 +3713,20 @@
         <v>7.1</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="116">
         <v>1</v>
       </c>
       <c r="H41" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I41" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J41" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
